--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_8.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_8.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9715884979116071</v>
+        <v>0.8424534568252928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7661513436263542</v>
+        <v>0.6102836946041237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8039853206195433</v>
+        <v>0.7283288283537002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9800757627665679</v>
+        <v>0.7949970442379696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1182636359400541</v>
+        <v>0.3734156563267914</v>
       </c>
       <c r="G2" t="n">
-        <v>1.563747041944623</v>
+        <v>2.606034728660808</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7011331425597577</v>
+        <v>0.971752028579206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1005254129178961</v>
+        <v>0.6464850524436521</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5674869056301235</v>
+        <v>1.157222821318814</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3438948035955968</v>
+        <v>0.6110774552597987</v>
       </c>
       <c r="L2" t="n">
-        <v>2.818336133657148</v>
+        <v>0.7854685369535902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3493108029835439</v>
+        <v>0.620701314326792</v>
       </c>
       <c r="N2" t="n">
-        <v>134.2696778875093</v>
+        <v>35.97012623930247</v>
       </c>
       <c r="O2" t="n">
-        <v>275.6048504307257</v>
+        <v>72.93470982752829</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9710677150355878</v>
+        <v>0.8420850740973251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7657768200548927</v>
+        <v>0.6092478104132197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8043936463726827</v>
+        <v>0.7282601417687276</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9799044798762566</v>
+        <v>0.7966017020937201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1204314085647377</v>
+        <v>0.3742887943555387</v>
       </c>
       <c r="G3" t="n">
-        <v>1.566251482791508</v>
+        <v>2.612961691015191</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6996725850168651</v>
+        <v>0.9719977165109764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1013896007446412</v>
+        <v>0.6414246994639948</v>
       </c>
       <c r="J3" t="n">
-        <v>0.571244617342258</v>
+        <v>1.216463734870983</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3470322874960451</v>
+        <v>0.6117914631273786</v>
       </c>
       <c r="L3" t="n">
-        <v>2.851666237722384</v>
+        <v>0.7849669094091236</v>
       </c>
       <c r="M3" t="n">
-        <v>0.352497699119091</v>
+        <v>0.6214265671045401</v>
       </c>
       <c r="N3" t="n">
-        <v>134.2333498232996</v>
+        <v>35.96545520424396</v>
       </c>
       <c r="O3" t="n">
-        <v>275.568522366516</v>
+        <v>72.93003879246979</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9705269549326484</v>
+        <v>0.84239935310837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7653495998335378</v>
+        <v>0.607963884121682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8044776895201533</v>
+        <v>0.7283811396801558</v>
       </c>
       <c r="E4" t="n">
-        <v>0.979687737636779</v>
+        <v>0.8002202290592917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1226823369298049</v>
+        <v>0.3735438925581763</v>
       </c>
       <c r="G4" t="n">
-        <v>1.569108306378876</v>
+        <v>2.621547312038641</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6993719675514645</v>
+        <v>0.971564913997659</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1024831484104804</v>
+        <v>0.6300135293839796</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5748217003516977</v>
+        <v>1.238790913361266</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3502603844710458</v>
+        <v>0.611182372584629</v>
       </c>
       <c r="L4" t="n">
-        <v>2.886274884310502</v>
+        <v>0.7853948638071422</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3557766353945349</v>
+        <v>0.6208078839946094</v>
       </c>
       <c r="N4" t="n">
-        <v>134.1963137818597</v>
+        <v>35.96943952884894</v>
       </c>
       <c r="O4" t="n">
-        <v>275.5314863250761</v>
+        <v>72.93402311707477</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.969973486651305</v>
+        <v>0.8431351886783591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7649147604569608</v>
+        <v>0.607406078401912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8046520459935691</v>
+        <v>0.7286950944222257</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9794559423921666</v>
+        <v>0.8044941827270622</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1249861634267468</v>
+        <v>0.3717998205095034</v>
       </c>
       <c r="G5" t="n">
-        <v>1.572016079292297</v>
+        <v>2.625277361455202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6987483045558254</v>
+        <v>0.9704419160894173</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1036526442563723</v>
+        <v>0.6165354448813459</v>
       </c>
       <c r="J5" t="n">
-        <v>0.578511073530659</v>
+        <v>1.240651063050838</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3535338221821878</v>
+        <v>0.6097539015943263</v>
       </c>
       <c r="L5" t="n">
-        <v>2.92169685431648</v>
+        <v>0.786396852668404</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3591016264773901</v>
+        <v>0.6193569160141565</v>
       </c>
       <c r="N5" t="n">
-        <v>134.1591044807855</v>
+        <v>35.97879937291159</v>
       </c>
       <c r="O5" t="n">
-        <v>275.4942770240019</v>
+        <v>72.9433829611374</v>
       </c>
     </row>
     <row r="6">
@@ -708,144 +708,144 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9693987545631277</v>
+        <v>0.8436115451620076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7643962322432059</v>
+        <v>0.6068774837755615</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8043938166826217</v>
+        <v>0.7288674238406995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9791355274964062</v>
+        <v>0.8075151825184583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1273785010873112</v>
+        <v>0.3706707638802513</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57548347984528</v>
+        <v>2.628812076155562</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6996719758280887</v>
+        <v>0.9698255037517702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1052692602062822</v>
+        <v>0.6070086007374982</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5819909242607634</v>
+        <v>1.240990540797598</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3569012483689448</v>
+        <v>0.6088273678804619</v>
       </c>
       <c r="L6" t="n">
-        <v>2.958479707959825</v>
+        <v>0.7870455083057125</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3625220862603973</v>
+        <v>0.6184157903204928</v>
       </c>
       <c r="N6" t="n">
-        <v>134.1211846027223</v>
+        <v>35.98488207853408</v>
       </c>
       <c r="O6" t="n">
-        <v>275.4563571459387</v>
+        <v>72.94946566675989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9688178990340642</v>
+        <v>0.8472264878080533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7639653297712656</v>
+        <v>0.6066596001827892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8048853153767893</v>
+        <v>0.7304750558185793</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9788923790293957</v>
+        <v>0.8228789096893172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1297963277340407</v>
+        <v>0.3621026534440869</v>
       </c>
       <c r="G7" t="n">
-        <v>1.578364926659268</v>
+        <v>2.630269064743692</v>
       </c>
       <c r="H7" t="n">
-        <v>0.697913913497783</v>
+        <v>0.964075097382752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1064960374103581</v>
+        <v>0.5585584702071247</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5862149725066177</v>
+        <v>1.108778639149577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3602725742185223</v>
+        <v>0.6017496601113181</v>
       </c>
       <c r="L7" t="n">
-        <v>2.995654461819889</v>
+        <v>0.7919679833982003</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3659465071220162</v>
+        <v>0.611226615729097</v>
       </c>
       <c r="N7" t="n">
-        <v>134.0835775336756</v>
+        <v>36.03165506861128</v>
       </c>
       <c r="O7" t="n">
-        <v>275.418750076892</v>
+        <v>72.99623865683711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9682247874700023</v>
+        <v>0.8462965718936666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.76351826740513</v>
+        <v>0.6064977180376966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8050941780775152</v>
+        <v>0.7300814101154228</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9786324369578817</v>
+        <v>0.8178836789874029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1322651704536488</v>
+        <v>0.3643067332956795</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58135443476015</v>
+        <v>2.631351571393326</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6971668237278419</v>
+        <v>0.9654831452380535</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1078075447853975</v>
+        <v>0.5743111307982427</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5900609979961766</v>
+        <v>1.126206502829163</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3636827882284902</v>
+        <v>0.6035782743734895</v>
       </c>
       <c r="L8" t="n">
-        <v>3.033613601919853</v>
+        <v>0.7907017149190354</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3694104285936777</v>
+        <v>0.6130840288379541</v>
       </c>
       <c r="N8" t="n">
-        <v>134.0458930087958</v>
+        <v>36.01951818461295</v>
       </c>
       <c r="O8" t="n">
-        <v>275.3810655520122</v>
+        <v>72.98410177283877</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9676209351472069</v>
+        <v>0.8476715309622347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7630939446992194</v>
+        <v>0.6063598931959724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8053758949789702</v>
+        <v>0.730596374973965</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9783881287792037</v>
+        <v>0.8265705803120706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.134778721868229</v>
+        <v>0.3610478154377201</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5841918826484</v>
+        <v>2.632273206744561</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6961591387062215</v>
+        <v>0.963641145798426</v>
       </c>
       <c r="I9" t="n">
-        <v>0.109040173179303</v>
+        <v>0.5469166386672624</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5940001411539251</v>
+        <v>1.117117396073206</v>
       </c>
       <c r="K9" t="n">
-        <v>0.367122216527724</v>
+        <v>0.6008725450856613</v>
       </c>
       <c r="L9" t="n">
-        <v>3.072260150578757</v>
+        <v>0.7925739996081493</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3729040244504575</v>
+        <v>0.6103356870185795</v>
       </c>
       <c r="N9" t="n">
-        <v>134.0082418852114</v>
+        <v>36.03748975336855</v>
       </c>
       <c r="O9" t="n">
-        <v>275.3434144284278</v>
+        <v>73.00207334159438</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9670012402367874</v>
+        <v>0.8471493352974589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7626234991464295</v>
+        <v>0.6021169857608575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8054492622102277</v>
+        <v>0.7299669773801775</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9780886271220375</v>
+        <v>0.8307480711935431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1373582184767417</v>
+        <v>0.3622855197564813</v>
       </c>
       <c r="G10" t="n">
-        <v>1.587337754226109</v>
+        <v>2.660645548299966</v>
       </c>
       <c r="H10" t="n">
-        <v>0.69589670837409</v>
+        <v>0.965892464496835</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1105512738253898</v>
+        <v>0.5337427534344731</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5976940285363596</v>
+        <v>1.107031584307423</v>
       </c>
       <c r="K10" t="n">
-        <v>0.370618696879612</v>
+        <v>0.601901586437917</v>
       </c>
       <c r="L10" t="n">
-        <v>3.111920624845609</v>
+        <v>0.7918629246603697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3764555708726897</v>
+        <v>0.6113809347434692</v>
       </c>
       <c r="N10" t="n">
-        <v>133.9703260644307</v>
+        <v>36.03064529886051</v>
       </c>
       <c r="O10" t="n">
-        <v>275.3054986076471</v>
+        <v>72.99522888708633</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9663595341686668</v>
+        <v>0.8477479652568727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7621989720409257</v>
+        <v>0.6021159589876635</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8060717917330973</v>
+        <v>0.7301317296165818</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9778174349588032</v>
+        <v>0.8354662193485906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1400293371168129</v>
+        <v>0.3608666514354958</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59017656893538</v>
+        <v>2.660652414337042</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6936699563671209</v>
+        <v>0.9653031553001001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1119195422248181</v>
+        <v>0.518863883780547</v>
       </c>
       <c r="J11" t="n">
-        <v>0.602236441982381</v>
+        <v>1.105703993878852</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3742049399952023</v>
+        <v>0.6007217753964774</v>
       </c>
       <c r="L11" t="n">
-        <v>3.152989813205323</v>
+        <v>0.792678080349784</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3800982937324227</v>
+        <v>0.6101825428575053</v>
       </c>
       <c r="N11" t="n">
-        <v>133.9318066549823</v>
+        <v>36.03849355098914</v>
       </c>
       <c r="O11" t="n">
-        <v>275.2669791981987</v>
+        <v>73.00307713921495</v>
       </c>
     </row>
   </sheetData>
